--- a/data/Sell_Ygo!.xlsx
+++ b/data/Sell_Ygo!.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leftis\OneDrive - City, University of London\Desktop\elef\Ygo!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE255E-1B5B-4F91-8EC3-5F8E5E5C2112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3955B-B6AA-4189-80E6-F519948C5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Sale-Trade" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -774,15 +774,9 @@
     <t>LD10</t>
   </si>
   <si>
-    <t>Decode Talker</t>
-  </si>
-  <si>
     <t>Quarter Century Secret Rare</t>
   </si>
   <si>
-    <t>TN23</t>
-  </si>
-  <si>
     <t>Dinomorphia Domain</t>
   </si>
   <si>
@@ -834,40 +828,73 @@
     <t>Performapal Odd-Eyes Seer</t>
   </si>
   <si>
+    <t>Tales of the White Forest</t>
+  </si>
+  <si>
+    <t>Blackwing - Shamal the Sandstorm</t>
+  </si>
+  <si>
+    <t>My Friend Purrely</t>
+  </si>
+  <si>
+    <t>RA02</t>
+  </si>
+  <si>
+    <t>Floowandereeze and the Advent of Adventure</t>
+  </si>
+  <si>
+    <t>Maple Maiden</t>
+  </si>
+  <si>
+    <t>Simorgh, Bird of Perfection</t>
+  </si>
+  <si>
+    <t>Super-Nimble Mega Hamster</t>
+  </si>
+  <si>
+    <t>Shamisen Samsara Sorrowcat</t>
+  </si>
+  <si>
+    <t>Dinomorphia Therizia</t>
+  </si>
+  <si>
+    <t>R-Genex Turing</t>
+  </si>
+  <si>
+    <t>BLTR</t>
+  </si>
+  <si>
+    <t>Infernoid Patrulea</t>
+  </si>
+  <si>
+    <t>Substitoad</t>
+  </si>
+  <si>
+    <t>Maximum Six</t>
+  </si>
+  <si>
+    <t>LODT</t>
+  </si>
+  <si>
+    <t>2024 Reprint</t>
+  </si>
+  <si>
+    <t>Gold Pride - Eradicator</t>
+  </si>
+  <si>
+    <t>LEDE</t>
+  </si>
+  <si>
     <t>Silhouhatte Rabbit</t>
   </si>
   <si>
+    <t>Illusion</t>
+  </si>
+  <si>
     <t>Mimighoul Dungeon</t>
   </si>
   <si>
-    <t>Tales of the White Forest</t>
-  </si>
-  <si>
-    <t>Blackwing - Shamal the Sandstorm</t>
-  </si>
-  <si>
-    <t>My Friend Purrely</t>
-  </si>
-  <si>
-    <t>RA02</t>
-  </si>
-  <si>
-    <t>Floowandereeze and the Advent of Adventure</t>
-  </si>
-  <si>
-    <t>Maple Maiden</t>
-  </si>
-  <si>
-    <t>Simorgh, Bird of Perfection</t>
-  </si>
-  <si>
-    <t>Super-Nimble Mega Hamster</t>
-  </si>
-  <si>
-    <t>Shamisen Samsara Sorrowcat</t>
-  </si>
-  <si>
-    <t>Dinomorphia Therizia</t>
+    <t>Mimighoul Maker</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5598,54 +5625,48 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138">
-        <v>2300</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
       <c r="L138" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O138">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="P138" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
         <v>248</v>
       </c>
-      <c r="B139" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" t="s">
-        <v>210</v>
-      </c>
       <c r="D139" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G139" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -5654,7 +5675,7 @@
         <v>237</v>
       </c>
       <c r="O139">
-        <v>0.3</v>
+        <v>6.69</v>
       </c>
       <c r="P139" t="s">
         <v>89</v>
@@ -5665,25 +5686,34 @@
         <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C140" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>1400</v>
+      </c>
+      <c r="F140">
+        <v>2500</v>
       </c>
       <c r="G140" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H140">
         <v>1</v>
+      </c>
+      <c r="J140">
+        <v>7</v>
       </c>
       <c r="L140" t="s">
         <v>237</v>
       </c>
       <c r="O140">
-        <v>6.69</v>
+        <v>0.1</v>
       </c>
       <c r="P140" t="s">
         <v>89</v>
@@ -5691,37 +5721,28 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141">
-        <v>1400</v>
-      </c>
-      <c r="F141">
-        <v>2500</v>
+        <v>28</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>1</v>
-      </c>
-      <c r="J141">
-        <v>7</v>
       </c>
       <c r="L141" t="s">
         <v>237</v>
       </c>
       <c r="O141">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P141" t="s">
         <v>89</v>
@@ -5729,19 +5750,19 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5750,7 +5771,7 @@
         <v>237</v>
       </c>
       <c r="O142">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="P142" t="s">
         <v>89</v>
@@ -5760,17 +5781,8 @@
       <c r="A143" t="s">
         <v>253</v>
       </c>
-      <c r="B143" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" t="s">
-        <v>254</v>
-      </c>
-      <c r="D143" t="s">
-        <v>28</v>
-      </c>
       <c r="G143" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5779,7 +5791,7 @@
         <v>237</v>
       </c>
       <c r="O143">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="P143" t="s">
         <v>89</v>
@@ -5787,10 +5799,10 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5807,10 +5819,10 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G145" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5819,7 +5831,7 @@
         <v>237</v>
       </c>
       <c r="O145">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P145" t="s">
         <v>89</v>
@@ -5827,7 +5839,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G146" t="s">
         <v>37</v>
@@ -5836,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="L146" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O146">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P146" t="s">
         <v>89</v>
@@ -5847,19 +5859,40 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147">
+        <v>1800</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>6</v>
+      </c>
+      <c r="K147">
         <v>1</v>
       </c>
       <c r="L147" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="O147">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="P147" t="s">
         <v>89</v>
@@ -5867,37 +5900,25 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B148" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s">
-        <v>108</v>
-      </c>
-      <c r="E148">
-        <v>100</v>
-      </c>
-      <c r="F148">
-        <v>1800</v>
+        <v>28</v>
       </c>
       <c r="G148" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>2</v>
-      </c>
-      <c r="J148">
-        <v>6</v>
-      </c>
-      <c r="K148">
         <v>1</v>
       </c>
       <c r="L148" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="P148" t="s">
         <v>89</v>
@@ -5905,19 +5926,19 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G149" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="L149" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O149">
-        <v>11.85</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="P149" t="s">
         <v>89</v>
@@ -5925,19 +5946,19 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G150" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="L150" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O150">
-        <v>7.02</v>
+        <v>0.5</v>
       </c>
       <c r="P150" t="s">
         <v>89</v>
@@ -5945,19 +5966,19 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O151">
-        <v>4.3099999999999996</v>
+        <v>1.05</v>
       </c>
       <c r="P151" t="s">
         <v>89</v>
@@ -5965,7 +5986,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G152" t="s">
         <v>118</v>
@@ -5977,7 +5998,7 @@
         <v>237</v>
       </c>
       <c r="O152">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="P152" t="s">
         <v>89</v>
@@ -5985,19 +6006,19 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G153" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="L153" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="O153">
-        <v>1.05</v>
+        <v>0.05</v>
       </c>
       <c r="P153" t="s">
         <v>89</v>
@@ -6005,10 +6026,10 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G154" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6017,7 +6038,7 @@
         <v>237</v>
       </c>
       <c r="O154">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="P154" t="s">
         <v>89</v>
@@ -6025,7 +6046,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G155" t="s">
         <v>21</v>
@@ -6034,10 +6055,10 @@
         <v>1</v>
       </c>
       <c r="L155" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="O155">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P155" t="s">
         <v>89</v>
@@ -6045,7 +6066,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G156" t="s">
         <v>21</v>
@@ -6057,7 +6078,7 @@
         <v>237</v>
       </c>
       <c r="O156">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="P156" t="s">
         <v>89</v>
@@ -6065,19 +6086,19 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G157" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="O157">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="P157" t="s">
         <v>89</v>
@@ -6085,7 +6106,22 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>600</v>
+      </c>
+      <c r="F158">
+        <v>600</v>
       </c>
       <c r="G158" t="s">
         <v>21</v>
@@ -6093,11 +6129,17 @@
       <c r="H158">
         <v>1</v>
       </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
       <c r="L158" t="s">
-        <v>237</v>
+        <v>274</v>
+      </c>
+      <c r="N158" t="s">
+        <v>58</v>
       </c>
       <c r="O158">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="P158" t="s">
         <v>89</v>
@@ -6105,21 +6147,220 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>275</v>
+      </c>
+      <c r="B159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>1800</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>4</v>
+      </c>
+      <c r="L159" t="s">
+        <v>274</v>
+      </c>
+      <c r="O159">
+        <v>0.08</v>
+      </c>
+      <c r="P159" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>276</v>
       </c>
-      <c r="G159" t="s">
-        <v>118</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="L159" t="s">
-        <v>237</v>
-      </c>
-      <c r="O159">
-        <v>0.4</v>
-      </c>
-      <c r="P159" t="s">
+      <c r="B160" t="s">
+        <v>75</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+      <c r="F160">
+        <v>2000</v>
+      </c>
+      <c r="G160" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>274</v>
+      </c>
+      <c r="O160">
+        <v>4.3</v>
+      </c>
+      <c r="P160" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>1900</v>
+      </c>
+      <c r="F161">
+        <v>1600</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
+      </c>
+      <c r="L161" t="s">
+        <v>278</v>
+      </c>
+      <c r="M161" t="s">
+        <v>279</v>
+      </c>
+      <c r="O161">
+        <v>1.6</v>
+      </c>
+      <c r="P161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" t="s">
+        <v>60</v>
+      </c>
+      <c r="D162" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162">
+        <v>2700</v>
+      </c>
+      <c r="F162">
+        <v>1700</v>
+      </c>
+      <c r="G162" t="s">
+        <v>245</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
+      <c r="L162" t="s">
+        <v>281</v>
+      </c>
+      <c r="O162">
+        <v>4.3</v>
+      </c>
+      <c r="P162" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163">
+        <v>1500</v>
+      </c>
+      <c r="G163" t="s">
+        <v>103</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="L163" t="s">
+        <v>257</v>
+      </c>
+      <c r="O163">
+        <v>11.85</v>
+      </c>
+      <c r="P163" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>21</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>257</v>
+      </c>
+      <c r="O164">
+        <v>7.02</v>
+      </c>
+      <c r="P164" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6154,19 +6395,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>

--- a/data/Sell_Ygo!.xlsx
+++ b/data/Sell_Ygo!.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leftis\OneDrive - City, University of London\Desktop\elef\Ygo!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3955B-B6AA-4189-80E6-F519948C5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB09257B-44A9-4C40-9D77-82522271DA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -330,33 +330,15 @@
     <t>Sea Serpernt</t>
   </si>
   <si>
-    <t>Beast Machine King Barbaros Ür</t>
-  </si>
-  <si>
     <t>Beast-Warrior</t>
   </si>
   <si>
-    <t>ANPR</t>
-  </si>
-  <si>
-    <t>Qty: 2 ---- 1 is for Misc (check Misc tab)</t>
-  </si>
-  <si>
-    <t>Ma'at</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>Secret</t>
   </si>
   <si>
-    <t>PRC1</t>
-  </si>
-  <si>
-    <t>Qty: 2 ---- 1 is for Binder (check Binder tab)</t>
-  </si>
-  <si>
     <t>Gold Pride - Nytro Blaster</t>
   </si>
   <si>
@@ -438,9 +420,6 @@
     <t>Adamancipator Seeker</t>
   </si>
   <si>
-    <t>Dogmatika Adin, the Enlightened</t>
-  </si>
-  <si>
     <t>Time Pendulumgraph</t>
   </si>
   <si>
@@ -603,12 +582,6 @@
     <t>Spirit</t>
   </si>
   <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Ghost Sleeper, the Underworld Princess</t>
-  </si>
-  <si>
     <t>Arms Regeneration</t>
   </si>
   <si>
@@ -651,18 +624,9 @@
     <t>BLC1</t>
   </si>
   <si>
-    <t>Jizukiru, the Star Destroying Kaiju</t>
-  </si>
-  <si>
     <t>Silver Ultra</t>
   </si>
   <si>
-    <t>Kumongous, the Sticky String Kaiju</t>
-  </si>
-  <si>
-    <t>Gimmick Puppet Nightmare</t>
-  </si>
-  <si>
     <t>Flying Elephant</t>
   </si>
   <si>
@@ -684,24 +648,9 @@
     <t>Unlimited Edition</t>
   </si>
   <si>
-    <t>Ally of Justice Nullfier</t>
-  </si>
-  <si>
-    <t>HA02</t>
-  </si>
-  <si>
-    <t>Digital Bug Rhinosebus</t>
-  </si>
-  <si>
     <t>SHVI</t>
   </si>
   <si>
-    <t>Dodododraw</t>
-  </si>
-  <si>
-    <t>WSUP</t>
-  </si>
-  <si>
     <t>Vampire Domination</t>
   </si>
   <si>
@@ -714,21 +663,6 @@
     <t>Ritual Monster</t>
   </si>
   <si>
-    <t>Sphinx Teleia</t>
-  </si>
-  <si>
-    <t>EP1</t>
-  </si>
-  <si>
-    <t>damaged</t>
-  </si>
-  <si>
-    <t>Dragunity Dux</t>
-  </si>
-  <si>
-    <t>Fabled Ragin</t>
-  </si>
-  <si>
     <t>Drytron Beta Rastaban</t>
   </si>
   <si>
@@ -762,18 +696,6 @@
     <t>Smile Potion</t>
   </si>
   <si>
-    <t>Sales Ban</t>
-  </si>
-  <si>
-    <t>Battlin' Boxer King Dempsey</t>
-  </si>
-  <si>
-    <t>XYZ Monster</t>
-  </si>
-  <si>
-    <t>LD10</t>
-  </si>
-  <si>
     <t>Quarter Century Secret Rare</t>
   </si>
   <si>
@@ -825,15 +747,9 @@
     <t>Sealed?</t>
   </si>
   <si>
-    <t>Performapal Odd-Eyes Seer</t>
-  </si>
-  <si>
     <t>Tales of the White Forest</t>
   </si>
   <si>
-    <t>Blackwing - Shamal the Sandstorm</t>
-  </si>
-  <si>
     <t>My Friend Purrely</t>
   </si>
   <si>
@@ -846,12 +762,6 @@
     <t>Maple Maiden</t>
   </si>
   <si>
-    <t>Simorgh, Bird of Perfection</t>
-  </si>
-  <si>
-    <t>Super-Nimble Mega Hamster</t>
-  </si>
-  <si>
     <t>Shamisen Samsara Sorrowcat</t>
   </si>
   <si>
@@ -895,6 +805,201 @@
   </si>
   <si>
     <t>Mimighoul Maker</t>
+  </si>
+  <si>
+    <t>Extinguish!</t>
+  </si>
+  <si>
+    <t>MP24</t>
+  </si>
+  <si>
+    <t>Dinomorphia Intact</t>
+  </si>
+  <si>
+    <t>Gold Pride - Leon</t>
+  </si>
+  <si>
+    <t>Kashtira Riseheart</t>
+  </si>
+  <si>
+    <t>Unchained Soul Lord of Yama</t>
+  </si>
+  <si>
+    <t>Patissciel Couverture</t>
+  </si>
+  <si>
+    <t>Magicore Warrior of the Relics</t>
+  </si>
+  <si>
+    <t>Exosister Stella</t>
+  </si>
+  <si>
+    <t>Sinful Spoils of Betrayal - Silvera</t>
+  </si>
+  <si>
+    <t>Rikka Princess</t>
+  </si>
+  <si>
+    <t>Yamatako Orochi</t>
+  </si>
+  <si>
+    <t>Therion "Bull" Ain</t>
+  </si>
+  <si>
+    <t>Superheavy Sanurai Security</t>
+  </si>
+  <si>
+    <t>Red Arrows</t>
+  </si>
+  <si>
+    <t>Promethean Princess, Bestower of Flames</t>
+  </si>
+  <si>
+    <t>RA03</t>
+  </si>
+  <si>
+    <t>Sky Striker Ace - Shizuku</t>
+  </si>
+  <si>
+    <t>Collector's Rare</t>
+  </si>
+  <si>
+    <t>Set Rotation</t>
+  </si>
+  <si>
+    <t>Laundry Dragonmaid</t>
+  </si>
+  <si>
+    <t>Salamangreat Circle</t>
+  </si>
+  <si>
+    <t>Deep Sea Diva</t>
+  </si>
+  <si>
+    <t>Platinum Secret Rare</t>
+  </si>
+  <si>
+    <t>Gravekeeper's Spy</t>
+  </si>
+  <si>
+    <t>Flip</t>
+  </si>
+  <si>
+    <t>One For One</t>
+  </si>
+  <si>
+    <t>Shrink</t>
+  </si>
+  <si>
+    <t>Rivalry of Warlords</t>
+  </si>
+  <si>
+    <t>WANTED: Seeker of Sinful Spoils</t>
+  </si>
+  <si>
+    <t>Triple Tactics Thrust</t>
+  </si>
+  <si>
+    <t>Ghost Sister &amp; Spooky Dogwood</t>
+  </si>
+  <si>
+    <t>S:P Little Knight</t>
+  </si>
+  <si>
+    <t>Man-Eater Bug</t>
+  </si>
+  <si>
+    <t>Nemeses Flag</t>
+  </si>
+  <si>
+    <t>Girsu, the Orcust Mekk-Knight</t>
+  </si>
+  <si>
+    <t>Ritual Beast Tamer Elder</t>
+  </si>
+  <si>
+    <t>House Dragonmaid</t>
+  </si>
+  <si>
+    <t>Trap Trick</t>
+  </si>
+  <si>
+    <t>Dragonmaid Lorpar</t>
+  </si>
+  <si>
+    <t>Mermail Abyssteus</t>
+  </si>
+  <si>
+    <t>Nemeses Corridor</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
+  </si>
+  <si>
+    <t>Swap Frog</t>
+  </si>
+  <si>
+    <t>Ostinato</t>
+  </si>
+  <si>
+    <t>Galatea, the Orcust Automaton</t>
+  </si>
+  <si>
+    <t>Dragonmaid Hospitality</t>
+  </si>
+  <si>
+    <t>Armageddon Knight</t>
+  </si>
+  <si>
+    <t>Neptabyss, the Atlantean Prince</t>
+  </si>
+  <si>
+    <t>Tempest, Dragon Ruler of Storms</t>
+  </si>
+  <si>
+    <t>Madolche Salon</t>
+  </si>
+  <si>
+    <t>Cynet Mining</t>
+  </si>
+  <si>
+    <t>Cursed Seal of the Forbidden Spell</t>
+  </si>
+  <si>
+    <t>Ancient Gear Howitzer</t>
+  </si>
+  <si>
+    <t>Fire King Island</t>
+  </si>
+  <si>
+    <t>Monster Reborn</t>
+  </si>
+  <si>
+    <t>Danger! Bigfoot!</t>
+  </si>
+  <si>
+    <t>Alt art</t>
+  </si>
+  <si>
+    <t>Superdreadnought Rail Cannon Juggernaut Liebe</t>
+  </si>
+  <si>
+    <t>Grave of the Super Ancient Organism</t>
+  </si>
+  <si>
+    <t>Six Samurai United</t>
+  </si>
+  <si>
+    <t>Lord of the Heavenly Prison</t>
+  </si>
+  <si>
+    <t>Atlantean Dragoons</t>
+  </si>
+  <si>
+    <t>Fabled Lurrie</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q164"/>
+  <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M208" sqref="M208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,43 +2473,31 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E38">
-        <v>3800</v>
-      </c>
-      <c r="F38">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="G38" t="s">
         <v>37</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2</v>
       </c>
-      <c r="J38">
-        <v>8</v>
-      </c>
       <c r="L38" t="s">
-        <v>99</v>
-      </c>
-      <c r="M38" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
-      </c>
-      <c r="P38" t="s">
-        <v>89</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2412,194 +2505,188 @@
         <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="F39" t="s">
-        <v>102</v>
+      <c r="E39">
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <v>2500</v>
       </c>
       <c r="G39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
         <v>103</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>10</v>
-      </c>
-      <c r="L39" t="s">
-        <v>104</v>
-      </c>
-      <c r="M39" t="s">
-        <v>105</v>
-      </c>
       <c r="O39">
-        <v>0.75</v>
-      </c>
-      <c r="P39" t="s">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>2300</v>
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40">
+        <v>21</v>
+      </c>
+      <c r="J40">
         <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="O40">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F41">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
         <v>103</v>
       </c>
-      <c r="J41">
-        <v>8</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>109</v>
-      </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="F42">
         <v>1000</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>109</v>
-      </c>
-      <c r="O42">
-        <v>7.0000000000000007E-2</v>
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F43">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>109</v>
-      </c>
-      <c r="O43">
-        <v>0.1</v>
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="F44">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>29</v>
@@ -2610,13 +2697,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -2642,28 +2729,28 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
@@ -2674,28 +2761,28 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
       </c>
       <c r="E47">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L47" t="s">
         <v>29</v>
@@ -2706,28 +2793,31 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
       </c>
       <c r="E48">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="F48">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L48" t="s">
         <v>29</v>
@@ -2738,28 +2828,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>450</v>
-      </c>
-      <c r="F49">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
-      </c>
-      <c r="J49">
-        <v>4</v>
       </c>
       <c r="L49" t="s">
         <v>29</v>
@@ -2770,34 +2848,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>2200</v>
-      </c>
-      <c r="F50">
-        <v>2200</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="P50" t="s">
         <v>89</v>
@@ -2805,19 +2868,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>2800</v>
+      </c>
+      <c r="F51">
+        <v>2200</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="P51" t="s">
         <v>89</v>
@@ -2825,19 +2900,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>2400</v>
+      </c>
+      <c r="F52">
+        <v>2400</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
       </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
       <c r="L52" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P52" t="s">
         <v>89</v>
@@ -2845,31 +2932,34 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
       </c>
       <c r="E53">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="F53">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
       </c>
       <c r="J53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>58</v>
       </c>
       <c r="P53" t="s">
         <v>89</v>
@@ -2877,30 +2967,36 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E54">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="F54">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
         <v>37</v>
       </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="J54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
         <v>123</v>
       </c>
       <c r="P54" t="s">
@@ -2909,28 +3005,28 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
       </c>
       <c r="E55">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F55">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -2944,45 +3040,27 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56">
-        <v>2000</v>
-      </c>
-      <c r="F56">
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
       </c>
-      <c r="N56" t="s">
-        <v>129</v>
-      </c>
       <c r="P56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -2994,16 +3072,16 @@
         <v>20</v>
       </c>
       <c r="E57">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F57">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="s">
         <v>37</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -3017,7 +3095,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -3026,45 +3104,33 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="P58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59">
-        <v>1200</v>
-      </c>
-      <c r="F59">
-        <v>1000</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
       </c>
-      <c r="J59">
+      <c r="H59">
         <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="P59" t="s">
         <v>89</v>
@@ -3072,37 +3138,34 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E60">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="F60">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>4</v>
       </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
       <c r="L60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60">
-        <v>0.05</v>
+        <v>128</v>
       </c>
       <c r="P60" t="s">
         <v>89</v>
@@ -3110,19 +3173,34 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>102</v>
+      </c>
+      <c r="E61">
+        <v>1500</v>
+      </c>
+      <c r="F61">
+        <v>1000</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P61" t="s">
         <v>89</v>
@@ -3130,60 +3208,66 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>2600</v>
+      </c>
+      <c r="F62">
+        <v>1200</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
       </c>
       <c r="L62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E63">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="F63">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J63">
-        <v>4</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3191,34 +3275,31 @@
         <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E64">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F64">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J64">
-        <v>3</v>
-      </c>
-      <c r="K64">
         <v>7</v>
       </c>
       <c r="L64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -3226,63 +3307,63 @@
         <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="E65">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="F65">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
       </c>
       <c r="J65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
         <v>142</v>
       </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66">
-        <v>3000</v>
-      </c>
-      <c r="F66">
-        <v>2500</v>
+      <c r="E66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" t="s">
+        <v>144</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
       </c>
       <c r="J66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L66" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3290,153 +3371,162 @@
         <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67">
-        <v>2500</v>
-      </c>
-      <c r="F67">
-        <v>2100</v>
+        <v>142</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" t="s">
+        <v>146</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
       </c>
       <c r="J67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L67" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
         <v>148</v>
       </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
       <c r="E68">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F68">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="J68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L68" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="P68" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" t="s">
-        <v>151</v>
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>1200</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>143</v>
+        <v>22</v>
+      </c>
+      <c r="O69">
+        <v>0.2</v>
       </c>
       <c r="P69" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" t="s">
-        <v>153</v>
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>2000</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>143</v>
+        <v>22</v>
+      </c>
+      <c r="O70">
+        <v>0.53</v>
       </c>
       <c r="P70" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="E71">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="F71">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="G71" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="J71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -3447,101 +3537,80 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72">
-        <v>1200</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="O72">
-        <v>0.2</v>
-      </c>
       <c r="P72" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
         <v>20</v>
       </c>
       <c r="E73">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
       </c>
-      <c r="O73">
-        <v>0.53</v>
-      </c>
       <c r="P73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="F74">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -3552,16 +3621,28 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>1200</v>
+      </c>
+      <c r="F75">
+        <v>1200</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -3572,31 +3653,31 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
       </c>
       <c r="E76">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F76">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="J76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="P76" t="s">
         <v>89</v>
@@ -3604,31 +3685,31 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E77">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F77">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="P77" t="s">
         <v>89</v>
@@ -3636,31 +3717,31 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E78">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F78">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="P78" t="s">
         <v>89</v>
@@ -3668,22 +3749,22 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E79">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F79">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -3700,31 +3781,31 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80">
-        <v>2000</v>
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
       </c>
       <c r="F80">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="P80" t="s">
         <v>89</v>
@@ -3732,31 +3813,31 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="E81">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F81">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P81" t="s">
         <v>89</v>
@@ -3764,31 +3845,19 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82">
-        <v>2500</v>
-      </c>
-      <c r="F82">
-        <v>1700</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P82" t="s">
         <v>89</v>
@@ -3796,31 +3865,19 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
       </c>
-      <c r="J83">
-        <v>12</v>
-      </c>
       <c r="L83" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="P83" t="s">
         <v>89</v>
@@ -3828,28 +3885,28 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F84">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="J84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L84" t="s">
         <v>29</v>
@@ -3860,36 +3917,63 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>1000</v>
+      </c>
+      <c r="F85">
+        <v>1000</v>
       </c>
       <c r="G85" t="s">
         <v>21</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>29</v>
       </c>
+      <c r="N85" t="s">
+        <v>58</v>
+      </c>
       <c r="P85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>700</v>
+      </c>
+      <c r="F86">
+        <v>1100</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -3900,31 +3984,37 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>170</v>
+      </c>
+      <c r="N87" t="s">
+        <v>58</v>
       </c>
       <c r="P87" t="s">
         <v>89</v>
@@ -3932,34 +4022,34 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F88">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
       </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
       <c r="J88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
-      </c>
-      <c r="N88" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="P88" t="s">
         <v>89</v>
@@ -3967,31 +4057,31 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="F89">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="P89" t="s">
         <v>89</v>
@@ -3999,37 +4089,31 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
         <v>20</v>
       </c>
       <c r="E90">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F90">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="s">
         <v>21</v>
       </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
       <c r="J90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L90" t="s">
-        <v>177</v>
-      </c>
-      <c r="N90" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="P90" t="s">
         <v>89</v>
@@ -4037,34 +4121,19 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91">
-        <v>500</v>
-      </c>
-      <c r="F91">
-        <v>2500</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
       </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
       <c r="L91" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P91" t="s">
         <v>89</v>
@@ -4072,31 +4141,19 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92">
-        <v>2400</v>
-      </c>
-      <c r="F92">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
       </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
       <c r="L92" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P92" t="s">
         <v>89</v>
@@ -4104,31 +4161,19 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93">
-        <v>2200</v>
-      </c>
-      <c r="F93">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
         <v>21</v>
       </c>
-      <c r="J93">
-        <v>6</v>
-      </c>
       <c r="L93" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P93" t="s">
         <v>89</v>
@@ -4136,19 +4181,34 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>500</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
       </c>
       <c r="G94" t="s">
         <v>21</v>
       </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
       <c r="L94" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="N94" t="s">
+        <v>58</v>
       </c>
       <c r="P94" t="s">
         <v>89</v>
@@ -4156,19 +4216,34 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>600</v>
+      </c>
+      <c r="F95">
+        <v>600</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
       </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
       <c r="L95" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="N95" t="s">
+        <v>58</v>
       </c>
       <c r="P95" t="s">
         <v>89</v>
@@ -4176,304 +4251,298 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>800</v>
+      </c>
+      <c r="F96">
+        <v>1800</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="L96" t="s">
+        <v>170</v>
+      </c>
+      <c r="N96" t="s">
+        <v>180</v>
+      </c>
+      <c r="O96">
+        <v>0.22</v>
+      </c>
+      <c r="P96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" t="s">
+        <v>170</v>
+      </c>
+      <c r="P97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98">
+        <v>1000</v>
+      </c>
+      <c r="F98">
+        <v>2100</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98" t="s">
+        <v>170</v>
+      </c>
+      <c r="P98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>183</v>
-      </c>
-      <c r="B96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="L96" t="s">
-        <v>177</v>
-      </c>
-      <c r="P96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" t="s">
-        <v>57</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>500</v>
-      </c>
-      <c r="F97">
-        <v>500</v>
-      </c>
-      <c r="G97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97">
-        <v>2</v>
-      </c>
-      <c r="L97" t="s">
-        <v>177</v>
-      </c>
-      <c r="N97" t="s">
-        <v>58</v>
-      </c>
-      <c r="P97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>185</v>
-      </c>
-      <c r="B98" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98">
-        <v>600</v>
-      </c>
-      <c r="F98">
-        <v>600</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98">
-        <v>3</v>
-      </c>
-      <c r="L98" t="s">
-        <v>177</v>
-      </c>
-      <c r="N98" t="s">
-        <v>58</v>
-      </c>
-      <c r="P98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>186</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
         <v>20</v>
       </c>
       <c r="E99">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L99" t="s">
-        <v>177</v>
-      </c>
-      <c r="N99" t="s">
-        <v>187</v>
-      </c>
-      <c r="O99">
-        <v>0.22</v>
+        <v>170</v>
       </c>
       <c r="P99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E100">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="F100">
+        <v>2000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="L100" t="s">
+        <v>136</v>
+      </c>
+      <c r="P100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101">
+        <v>3000</v>
+      </c>
+      <c r="F101">
         <v>1500</v>
       </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>4</v>
-      </c>
-      <c r="L100" t="s">
-        <v>177</v>
-      </c>
-      <c r="O100">
-        <v>0.11</v>
-      </c>
-      <c r="P100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>189</v>
-      </c>
-      <c r="B101" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>1300</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
       <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>177</v>
-      </c>
-      <c r="O101">
-        <v>0.02</v>
+        <v>170</v>
       </c>
       <c r="P101" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="E102">
+        <v>2300</v>
+      </c>
+      <c r="F102">
+        <v>2000</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>99</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F103">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="J103">
-        <v>5</v>
-      </c>
-      <c r="K103">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P103" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F104">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="s">
         <v>21</v>
-      </c>
-      <c r="H104">
-        <v>2</v>
       </c>
       <c r="J104">
         <v>5</v>
       </c>
       <c r="L104" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P104" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -4482,13 +4551,13 @@
         <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="E105">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="F105">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -4496,246 +4565,252 @@
       <c r="J105">
         <v>7</v>
       </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
       <c r="L105" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F106">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L106" t="s">
-        <v>177</v>
-      </c>
-      <c r="P106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D107" t="s">
         <v>71</v>
       </c>
       <c r="E107">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L107" t="s">
-        <v>177</v>
+        <v>194</v>
+      </c>
+      <c r="O107">
+        <v>3.5</v>
       </c>
       <c r="P107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>3000</v>
+        <v>1850</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G108" t="s">
-        <v>103</v>
+        <v>195</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L108" t="s">
-        <v>177</v>
+        <v>194</v>
+      </c>
+      <c r="O108">
+        <v>0.1</v>
       </c>
       <c r="P108" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109">
-        <v>2700</v>
-      </c>
-      <c r="F109">
-        <v>2000</v>
+        <v>28</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109">
-        <v>5</v>
+        <v>195</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>177</v>
+        <v>194</v>
+      </c>
+      <c r="O109">
+        <v>0.44</v>
       </c>
       <c r="P109" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>201</v>
+      </c>
+      <c r="O110">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>53</v>
+      </c>
+      <c r="O111">
+        <v>0.3</v>
+      </c>
+      <c r="P111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
         <v>79</v>
       </c>
-      <c r="D110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E110">
-        <v>3000</v>
-      </c>
-      <c r="F110">
+      <c r="D112" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112">
+        <v>2950</v>
+      </c>
+      <c r="F112">
         <v>2500</v>
       </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110">
-        <v>7</v>
-      </c>
-      <c r="K110">
-        <v>4</v>
-      </c>
-      <c r="L110" t="s">
-        <v>177</v>
-      </c>
-      <c r="P110" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" t="s">
-        <v>57</v>
-      </c>
-      <c r="C111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111">
-        <v>800</v>
-      </c>
-      <c r="F111">
-        <v>1200</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>37</v>
       </c>
-      <c r="J111">
-        <v>2</v>
-      </c>
-      <c r="L111" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" t="s">
-        <v>55</v>
-      </c>
-      <c r="D112" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>103</v>
-      </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L112" t="s">
         <v>203</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="P112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
@@ -4747,258 +4822,264 @@
         <v>20</v>
       </c>
       <c r="E113">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="F113">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="O113">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="P113" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114">
-        <v>3300</v>
-      </c>
-      <c r="F114">
-        <v>2600</v>
+        <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>10</v>
-      </c>
       <c r="L114" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O114">
-        <v>0.99</v>
+        <v>0.08</v>
       </c>
       <c r="P114" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E115">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>2500</v>
       </c>
       <c r="G115" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L115" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O115">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="P115" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>400</v>
+      </c>
+      <c r="F116">
+        <v>900</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="L116" t="s">
+        <v>170</v>
+      </c>
+      <c r="N116" t="s">
+        <v>180</v>
+      </c>
+      <c r="O116">
+        <v>0.27</v>
+      </c>
+      <c r="P116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" t="s">
         <v>57</v>
       </c>
-      <c r="C116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D116" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116">
-        <v>1000</v>
-      </c>
-      <c r="F116">
-        <v>2000</v>
-      </c>
-      <c r="G116" t="s">
-        <v>205</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>8</v>
-      </c>
-      <c r="L116" t="s">
-        <v>203</v>
-      </c>
-      <c r="O116">
-        <v>1.45</v>
-      </c>
-      <c r="P116" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>208</v>
-      </c>
-      <c r="B117" t="s">
-        <v>39</v>
-      </c>
       <c r="C117" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
       </c>
       <c r="E117">
-        <v>1850</v>
+        <v>1600</v>
       </c>
       <c r="F117">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="G117" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>4</v>
       </c>
       <c r="L117" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O117">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="P117" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E118">
+        <v>500</v>
       </c>
       <c r="G118" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
       <c r="L118" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O118">
-        <v>0.44</v>
+        <v>1.19</v>
       </c>
       <c r="P118" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>500</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="L119" t="s">
+        <v>33</v>
+      </c>
+      <c r="O119">
+        <v>0.7</v>
+      </c>
+      <c r="P119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
         <v>42</v>
       </c>
-      <c r="C119" t="s">
-        <v>212</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
         <v>43</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="L119" t="s">
-        <v>213</v>
-      </c>
-      <c r="O119">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="P119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>215</v>
-      </c>
-      <c r="B120" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120">
-        <v>1600</v>
-      </c>
-      <c r="F120">
-        <v>1200</v>
       </c>
       <c r="G120" t="s">
         <v>37</v>
@@ -5006,133 +5087,127 @@
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>4</v>
-      </c>
       <c r="L120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O120">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="P120" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121">
-        <v>2600</v>
-      </c>
-      <c r="F121">
-        <v>2200</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>7</v>
-      </c>
       <c r="L121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O121">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
         <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O122">
-        <v>0.01</v>
+        <v>6.69</v>
       </c>
       <c r="P122" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>1400</v>
+      </c>
+      <c r="F123">
+        <v>2500</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="L123" t="s">
+        <v>215</v>
+      </c>
+      <c r="O123">
+        <v>0.1</v>
+      </c>
+      <c r="P123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
         <v>222</v>
       </c>
-      <c r="D123" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="L123" t="s">
-        <v>53</v>
-      </c>
-      <c r="O123">
-        <v>0.3</v>
-      </c>
-      <c r="P123" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" t="s">
-        <v>79</v>
-      </c>
       <c r="D124" t="s">
-        <v>224</v>
-      </c>
-      <c r="E124">
-        <v>2950</v>
-      </c>
-      <c r="F124">
-        <v>2500</v>
+        <v>28</v>
       </c>
       <c r="G124" t="s">
         <v>37</v>
@@ -5140,90 +5215,69 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>8</v>
-      </c>
       <c r="L124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O124">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P124" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125">
-        <v>2500</v>
-      </c>
-      <c r="F125">
-        <v>3000</v>
+        <v>28</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>10</v>
-      </c>
       <c r="L125" t="s">
-        <v>226</v>
-      </c>
-      <c r="M125" t="s">
+        <v>215</v>
+      </c>
+      <c r="O125">
+        <v>1.3</v>
+      </c>
+      <c r="P125" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>227</v>
       </c>
-      <c r="O125">
-        <v>0.01</v>
-      </c>
-      <c r="P125" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>228</v>
-      </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126">
-        <v>1500</v>
-      </c>
-      <c r="F126">
-        <v>1000</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>4</v>
-      </c>
       <c r="L126" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="O126">
         <v>0.2</v>
@@ -5232,62 +5286,44 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>215</v>
+      </c>
+      <c r="O127">
+        <v>0.2</v>
+      </c>
+      <c r="P127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>229</v>
       </c>
-      <c r="B127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" t="s">
-        <v>45</v>
-      </c>
-      <c r="D127" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127">
-        <v>2300</v>
-      </c>
-      <c r="F127">
-        <v>1800</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>5</v>
-      </c>
-      <c r="L127" t="s">
-        <v>33</v>
-      </c>
-      <c r="O127">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>230</v>
-      </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
       </c>
       <c r="E128">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G128" t="s">
         <v>37</v>
@@ -5296,65 +5332,50 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L128" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="O128">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P128" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="G129" t="s">
+        <v>37</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
         <v>231</v>
       </c>
-      <c r="B129" t="s">
+      <c r="O129">
+        <v>0.2</v>
+      </c>
+      <c r="P129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
         <v>27</v>
       </c>
-      <c r="C129" t="s">
-        <v>212</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C130" t="s">
+        <v>198</v>
+      </c>
+      <c r="D130" t="s">
         <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="L129" t="s">
-        <v>177</v>
-      </c>
-      <c r="O129">
-        <v>0.08</v>
-      </c>
-      <c r="P129" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" t="s">
-        <v>57</v>
-      </c>
-      <c r="C130" t="s">
-        <v>233</v>
-      </c>
-      <c r="D130" t="s">
-        <v>155</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>2500</v>
       </c>
       <c r="G130" t="s">
         <v>37</v>
@@ -5362,769 +5383,964 @@
       <c r="H130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>6</v>
-      </c>
       <c r="L130" t="s">
-        <v>234</v>
-      </c>
-      <c r="O130">
-        <v>0.25</v>
+        <v>231</v>
       </c>
       <c r="P130" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>235</v>
-      </c>
-      <c r="B131" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>231</v>
+      </c>
+      <c r="O131">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="P131" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>237</v>
+      </c>
+      <c r="G132" t="s">
+        <v>112</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>238</v>
+      </c>
+      <c r="O132">
+        <v>1.05</v>
+      </c>
+      <c r="P132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>222</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>112</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>215</v>
+      </c>
+      <c r="O133">
+        <v>0.79</v>
+      </c>
+      <c r="P133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
         <v>55</v>
       </c>
-      <c r="D131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131">
-        <v>400</v>
-      </c>
-      <c r="F131">
-        <v>900</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="J131">
+      <c r="D134" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134">
+        <v>2100</v>
+      </c>
+      <c r="F134">
+        <v>2600</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="L134" t="s">
+        <v>215</v>
+      </c>
+      <c r="O134">
+        <v>0.05</v>
+      </c>
+      <c r="P134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135">
+        <v>1600</v>
+      </c>
+      <c r="F135">
+        <v>1200</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="L135" t="s">
+        <v>215</v>
+      </c>
+      <c r="N135" t="s">
+        <v>58</v>
+      </c>
+      <c r="O135">
+        <v>0.12</v>
+      </c>
+      <c r="P135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>1500</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>112</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136">
         <v>4</v>
       </c>
-      <c r="L131" t="s">
-        <v>177</v>
-      </c>
-      <c r="N131" t="s">
-        <v>187</v>
-      </c>
-      <c r="O131">
-        <v>0.27</v>
-      </c>
-      <c r="P131" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>236</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="L136" t="s">
+        <v>215</v>
+      </c>
+      <c r="O136">
+        <v>0.4</v>
+      </c>
+      <c r="P136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" t="s">
         <v>57</v>
       </c>
-      <c r="C132" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132">
-        <v>1600</v>
-      </c>
-      <c r="F132">
-        <v>2100</v>
-      </c>
-      <c r="G132" t="s">
-        <v>118</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>4</v>
-      </c>
-      <c r="L132" t="s">
-        <v>237</v>
-      </c>
-      <c r="O132">
-        <v>0.95</v>
-      </c>
-      <c r="P132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>238</v>
-      </c>
-      <c r="B133" t="s">
-        <v>57</v>
-      </c>
-      <c r="C133" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133">
-        <v>500</v>
-      </c>
-      <c r="G133" t="s">
-        <v>118</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="L133" t="s">
-        <v>237</v>
-      </c>
-      <c r="O133">
-        <v>1.19</v>
-      </c>
-      <c r="P133" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>239</v>
-      </c>
-      <c r="B134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134">
-        <v>500</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="J134">
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>600</v>
+      </c>
+      <c r="F137">
+        <v>600</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="J137">
         <v>2</v>
-      </c>
-      <c r="L134" t="s">
-        <v>33</v>
-      </c>
-      <c r="O134">
-        <v>0.7</v>
-      </c>
-      <c r="P134" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>240</v>
-      </c>
-      <c r="B135" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" t="s">
-        <v>210</v>
-      </c>
-      <c r="D135" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" t="s">
-        <v>37</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
-        <v>237</v>
-      </c>
-      <c r="O135">
-        <v>0.08</v>
-      </c>
-      <c r="P135" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>241</v>
-      </c>
-      <c r="B136" t="s">
-        <v>27</v>
-      </c>
-      <c r="C136" t="s">
-        <v>210</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="L136" t="s">
-        <v>237</v>
-      </c>
-      <c r="O136">
-        <v>0.3</v>
-      </c>
-      <c r="P136" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>242</v>
-      </c>
-      <c r="B137" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" t="s">
-        <v>243</v>
-      </c>
-      <c r="E137">
-        <v>2300</v>
-      </c>
-      <c r="F137">
-        <v>1800</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>4</v>
       </c>
       <c r="L137" t="s">
         <v>244</v>
       </c>
+      <c r="N137" t="s">
+        <v>58</v>
+      </c>
       <c r="O137">
-        <v>2.5</v>
+        <v>0.06</v>
       </c>
       <c r="P137" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>1800</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>4</v>
+      </c>
+      <c r="L138" t="s">
+        <v>244</v>
+      </c>
+      <c r="O138">
+        <v>0.08</v>
+      </c>
+      <c r="P138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>246</v>
       </c>
-      <c r="B138" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="L138" t="s">
-        <v>237</v>
-      </c>
-      <c r="O138">
-        <v>0.3</v>
-      </c>
-      <c r="P138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139">
+        <v>2000</v>
+      </c>
+      <c r="G139" t="s">
+        <v>99</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>244</v>
+      </c>
+      <c r="O139">
+        <v>4.3</v>
+      </c>
+      <c r="P139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>247</v>
       </c>
-      <c r="B139" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>1900</v>
+      </c>
+      <c r="F140">
+        <v>1600</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>6</v>
+      </c>
+      <c r="L140" t="s">
         <v>248</v>
       </c>
-      <c r="D139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>103</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>237</v>
-      </c>
-      <c r="O139">
-        <v>6.69</v>
-      </c>
-      <c r="P139" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="M140" t="s">
         <v>249</v>
       </c>
-      <c r="B140" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" t="s">
-        <v>49</v>
-      </c>
-      <c r="D140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140">
-        <v>1400</v>
-      </c>
-      <c r="F140">
-        <v>2500</v>
-      </c>
-      <c r="G140" t="s">
-        <v>21</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>7</v>
-      </c>
-      <c r="L140" t="s">
-        <v>237</v>
-      </c>
       <c r="O140">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="P140" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>250</v>
       </c>
       <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" t="s">
+        <v>71</v>
+      </c>
+      <c r="E141">
+        <v>2700</v>
+      </c>
+      <c r="F141">
+        <v>1700</v>
+      </c>
+      <c r="G141" t="s">
+        <v>219</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>8</v>
+      </c>
+      <c r="L141" t="s">
+        <v>251</v>
+      </c>
+      <c r="O141">
+        <v>4.3</v>
+      </c>
+      <c r="P141" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>253</v>
+      </c>
+      <c r="D142" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142">
+        <v>1500</v>
+      </c>
+      <c r="G142" t="s">
+        <v>99</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="L142" t="s">
+        <v>231</v>
+      </c>
+      <c r="O142">
+        <v>15.82</v>
+      </c>
+      <c r="P142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
         <v>27</v>
       </c>
-      <c r="C141" t="s">
-        <v>248</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="s">
         <v>28</v>
       </c>
-      <c r="G141" t="s">
-        <v>37</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="L141" t="s">
-        <v>237</v>
-      </c>
-      <c r="O141">
-        <v>0.2</v>
-      </c>
-      <c r="P141" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" t="s">
-        <v>252</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>103</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
-        <v>237</v>
-      </c>
-      <c r="O142">
-        <v>1.3</v>
-      </c>
-      <c r="P142" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>253</v>
-      </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="L143" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O143">
-        <v>0.2</v>
+        <v>7.02</v>
       </c>
       <c r="P143" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="s">
+        <v>198</v>
+      </c>
+      <c r="D144" t="s">
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>21</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144" t="s">
-        <v>237</v>
-      </c>
-      <c r="O144">
-        <v>0.2</v>
+        <v>257</v>
       </c>
       <c r="P144" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" t="s">
+        <v>205</v>
+      </c>
+      <c r="D145" t="s">
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>237</v>
-      </c>
-      <c r="O145">
-        <v>0.1</v>
+        <v>257</v>
       </c>
       <c r="P145" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="B146" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <v>1500</v>
+      </c>
+      <c r="F146">
+        <v>1200</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="H146">
         <v>1</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
       </c>
       <c r="L146" t="s">
         <v>257</v>
       </c>
-      <c r="O146">
-        <v>0.2</v>
+      <c r="N146" t="s">
+        <v>58</v>
       </c>
       <c r="P146" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>1500</v>
+      </c>
+      <c r="F147">
+        <v>2100</v>
+      </c>
+      <c r="G147" t="s">
+        <v>112</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="L147" t="s">
+        <v>257</v>
+      </c>
+      <c r="O147">
+        <v>8.73</v>
+      </c>
+      <c r="P147" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
         <v>57</v>
       </c>
-      <c r="C147" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147">
-        <v>100</v>
-      </c>
-      <c r="F147">
-        <v>1800</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
-      <c r="H147">
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148">
+        <v>2000</v>
+      </c>
+      <c r="G148" t="s">
+        <v>112</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>2</v>
-      </c>
-      <c r="J147">
-        <v>6</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" t="s">
-        <v>109</v>
-      </c>
-      <c r="O147">
-        <v>0.12</v>
-      </c>
-      <c r="P147" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>285</v>
-      </c>
-      <c r="B148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" t="s">
-        <v>210</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
       </c>
       <c r="L148" t="s">
         <v>257</v>
       </c>
+      <c r="O148">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="P148" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149">
+        <v>1700</v>
+      </c>
+      <c r="F149">
+        <v>700</v>
+      </c>
+      <c r="G149" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>5</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>215</v>
+      </c>
+      <c r="P149" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>263</v>
       </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="L149" t="s">
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>2300</v>
+      </c>
+      <c r="F150">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+      <c r="L150" t="s">
+        <v>215</v>
+      </c>
+      <c r="P150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>300</v>
+      </c>
+      <c r="F151">
+        <v>800</v>
+      </c>
+      <c r="G151" t="s">
+        <v>112</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>4</v>
+      </c>
+      <c r="L151" t="s">
+        <v>215</v>
+      </c>
+      <c r="P151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>265</v>
+      </c>
+      <c r="B152" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
         <v>257</v>
       </c>
-      <c r="O149">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="P149" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>264</v>
-      </c>
-      <c r="G150" t="s">
-        <v>118</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="L150" t="s">
-        <v>237</v>
-      </c>
-      <c r="O150">
-        <v>0.5</v>
-      </c>
-      <c r="P150" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>265</v>
-      </c>
-      <c r="G151" t="s">
-        <v>118</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="L151" t="s">
+      <c r="P152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>266</v>
       </c>
-      <c r="O151">
-        <v>1.05</v>
-      </c>
-      <c r="P151" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B153" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>4</v>
+      </c>
+      <c r="L153" t="s">
+        <v>215</v>
+      </c>
+      <c r="P153" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>267</v>
       </c>
-      <c r="G152" t="s">
-        <v>118</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="L152" t="s">
-        <v>237</v>
-      </c>
-      <c r="O152">
-        <v>0.79</v>
-      </c>
-      <c r="P152" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>800</v>
+      </c>
+      <c r="G154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>215</v>
+      </c>
+      <c r="N154" t="s">
+        <v>58</v>
+      </c>
+      <c r="P154" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>268</v>
       </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="L153" t="s">
-        <v>237</v>
-      </c>
-      <c r="O153">
-        <v>0.05</v>
-      </c>
-      <c r="P153" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>2100</v>
+      </c>
+      <c r="F155">
+        <v>1600</v>
+      </c>
+      <c r="G155" t="s">
+        <v>37</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>7</v>
+      </c>
+      <c r="L155" t="s">
+        <v>215</v>
+      </c>
+      <c r="P155" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>269</v>
       </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="L154" t="s">
-        <v>237</v>
-      </c>
-      <c r="O154">
-        <v>0.25</v>
-      </c>
-      <c r="P154" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B156" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>500</v>
+      </c>
+      <c r="F156">
+        <v>1500</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>4</v>
+      </c>
+      <c r="L156" t="s">
+        <v>257</v>
+      </c>
+      <c r="P156" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>270</v>
       </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="L155" t="s">
-        <v>266</v>
-      </c>
-      <c r="O155">
-        <v>0.15</v>
-      </c>
-      <c r="P155" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>271</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="L156" t="s">
-        <v>237</v>
-      </c>
-      <c r="O156">
-        <v>0.12</v>
-      </c>
-      <c r="P156" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>272</v>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
       </c>
       <c r="G157" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>237</v>
-      </c>
-      <c r="O157">
-        <v>0.4</v>
+        <v>257</v>
       </c>
       <c r="P157" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
         <v>20</v>
       </c>
       <c r="E158">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F158">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G158" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -6133,27 +6349,21 @@
         <v>2</v>
       </c>
       <c r="L158" t="s">
-        <v>274</v>
-      </c>
-      <c r="N158" t="s">
-        <v>58</v>
-      </c>
-      <c r="O158">
-        <v>0.06</v>
+        <v>272</v>
       </c>
       <c r="P158" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D159" t="s">
         <v>20</v>
@@ -6165,57 +6375,51 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159">
         <v>4</v>
       </c>
       <c r="L159" t="s">
-        <v>274</v>
-      </c>
-      <c r="O159">
-        <v>0.08</v>
+        <v>272</v>
       </c>
       <c r="P159" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D160" t="s">
         <v>20</v>
       </c>
       <c r="E160">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F160">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L160" t="s">
-        <v>274</v>
-      </c>
-      <c r="O160">
-        <v>4.3</v>
+        <v>272</v>
       </c>
       <c r="P160" t="s">
         <v>89</v>
@@ -6223,78 +6427,60 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
       </c>
       <c r="E161">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="F161">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="J161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L161" t="s">
-        <v>278</v>
-      </c>
-      <c r="M161" t="s">
-        <v>279</v>
-      </c>
-      <c r="O161">
-        <v>1.6</v>
+        <v>272</v>
       </c>
       <c r="P161" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B162" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162">
-        <v>2700</v>
-      </c>
-      <c r="F162">
-        <v>1700</v>
+        <v>28</v>
       </c>
       <c r="G162" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="J162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L162" t="s">
-        <v>281</v>
-      </c>
-      <c r="O162">
-        <v>4.3</v>
+        <v>272</v>
       </c>
       <c r="P162" t="s">
         <v>89</v>
@@ -6302,34 +6488,25 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D163" t="s">
-        <v>36</v>
-      </c>
-      <c r="E163">
-        <v>1500</v>
+        <v>28</v>
       </c>
       <c r="G163" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
       <c r="L163" t="s">
-        <v>257</v>
-      </c>
-      <c r="O163">
-        <v>11.85</v>
+        <v>272</v>
       </c>
       <c r="P163" t="s">
         <v>89</v>
@@ -6337,39 +6514,1937 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164" t="s">
+        <v>96</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>200</v>
+      </c>
+      <c r="F164">
+        <v>400</v>
+      </c>
+      <c r="G164" t="s">
+        <v>21</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="L164" t="s">
+        <v>272</v>
+      </c>
+      <c r="N164" t="s">
+        <v>58</v>
+      </c>
+      <c r="P164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>200</v>
+      </c>
+      <c r="F165">
+        <v>400</v>
+      </c>
+      <c r="G165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="L165" t="s">
+        <v>272</v>
+      </c>
+      <c r="N165" t="s">
+        <v>58</v>
+      </c>
+      <c r="P165" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>293</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>79</v>
+      </c>
+      <c r="D166" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166">
+        <v>3000</v>
+      </c>
+      <c r="F166">
+        <v>2000</v>
+      </c>
+      <c r="G166" t="s">
+        <v>99</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>9</v>
+      </c>
+      <c r="L166" t="s">
+        <v>272</v>
+      </c>
+      <c r="P166" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>293</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" t="s">
+        <v>148</v>
+      </c>
+      <c r="E167">
+        <v>3000</v>
+      </c>
+      <c r="F167">
+        <v>2000</v>
+      </c>
+      <c r="G167" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>9</v>
+      </c>
+      <c r="L167" t="s">
+        <v>272</v>
+      </c>
+      <c r="P167" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>293</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
+      <c r="D168" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168">
+        <v>3000</v>
+      </c>
+      <c r="F168">
+        <v>2000</v>
+      </c>
+      <c r="G168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>9</v>
+      </c>
+      <c r="L168" t="s">
+        <v>272</v>
+      </c>
+      <c r="P168" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169" t="s">
+        <v>75</v>
+      </c>
+      <c r="C169" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>500</v>
+      </c>
+      <c r="F169">
+        <v>1600</v>
+      </c>
+      <c r="G169" t="s">
+        <v>21</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="L169" t="s">
+        <v>272</v>
+      </c>
+      <c r="P169" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>276</v>
+      </c>
+      <c r="B170" t="s">
+        <v>75</v>
+      </c>
+      <c r="C170" t="s">
+        <v>79</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>500</v>
+      </c>
+      <c r="F170">
+        <v>1600</v>
+      </c>
+      <c r="G170" t="s">
+        <v>37</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="L170" t="s">
+        <v>272</v>
+      </c>
+      <c r="P170" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>294</v>
+      </c>
+      <c r="B171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" t="s">
+        <v>198</v>
+      </c>
+      <c r="D171" t="s">
+        <v>43</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="L171" t="s">
+        <v>272</v>
+      </c>
+      <c r="P171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>295</v>
+      </c>
+      <c r="B172" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>2700</v>
+      </c>
+      <c r="F172">
+        <v>1700</v>
+      </c>
+      <c r="G172" t="s">
+        <v>21</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>8</v>
+      </c>
+      <c r="L172" t="s">
+        <v>272</v>
+      </c>
+      <c r="P172" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>296</v>
+      </c>
+      <c r="B173" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>1700</v>
+      </c>
+      <c r="F173">
+        <v>2400</v>
+      </c>
+      <c r="G173" t="s">
+        <v>21</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>272</v>
+      </c>
+      <c r="P173" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>297</v>
+      </c>
+      <c r="B174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" t="s">
+        <v>298</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>1900</v>
+      </c>
+      <c r="F174">
+        <v>600</v>
+      </c>
+      <c r="G174" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>4</v>
+      </c>
+      <c r="L174" t="s">
+        <v>272</v>
+      </c>
+      <c r="P174" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>275</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" t="s">
+        <v>222</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s">
+        <v>99</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="L175" t="s">
+        <v>272</v>
+      </c>
+      <c r="P175" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s">
+        <v>21</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>272</v>
+      </c>
+      <c r="P176" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>273</v>
+      </c>
+      <c r="B177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C177" t="s">
+        <v>52</v>
+      </c>
+      <c r="D177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <v>1500</v>
+      </c>
+      <c r="G177" t="s">
+        <v>99</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>272</v>
+      </c>
+      <c r="P177" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178">
+        <v>2700</v>
+      </c>
+      <c r="G178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="L178" t="s">
+        <v>272</v>
+      </c>
+      <c r="O178">
+        <v>2.77</v>
+      </c>
+      <c r="P178" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>276</v>
+      </c>
+      <c r="B179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>500</v>
+      </c>
+      <c r="F179">
+        <v>1600</v>
+      </c>
+      <c r="G179" t="s">
+        <v>274</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="L179" t="s">
+        <v>272</v>
+      </c>
+      <c r="O179">
+        <v>1.23</v>
+      </c>
+      <c r="P179" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>75</v>
+      </c>
+      <c r="C180" t="s">
+        <v>96</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>200</v>
+      </c>
+      <c r="F180">
+        <v>400</v>
+      </c>
+      <c r="G180" t="s">
+        <v>279</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="L180" t="s">
+        <v>272</v>
+      </c>
+      <c r="N180" t="s">
+        <v>58</v>
+      </c>
+      <c r="O180">
+        <v>1.96</v>
+      </c>
+      <c r="P180" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>1200</v>
+      </c>
+      <c r="F181">
+        <v>2000</v>
+      </c>
+      <c r="G181" t="s">
+        <v>279</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>4</v>
+      </c>
+      <c r="L181" t="s">
+        <v>272</v>
+      </c>
+      <c r="N181" t="s">
+        <v>281</v>
+      </c>
+      <c r="O181">
+        <v>2.31</v>
+      </c>
+      <c r="P181" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>282</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" t="s">
+        <v>219</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>272</v>
+      </c>
+      <c r="O182">
+        <v>15.95</v>
+      </c>
+      <c r="P182" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>219</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>272</v>
+      </c>
+      <c r="O183">
+        <v>11.49</v>
+      </c>
+      <c r="P183" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>284</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
+        <v>200</v>
+      </c>
+      <c r="D184" t="s">
+        <v>43</v>
+      </c>
+      <c r="G184" t="s">
+        <v>279</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>272</v>
+      </c>
+      <c r="O184">
+        <v>2.93</v>
+      </c>
+      <c r="P184" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>285</v>
+      </c>
+      <c r="B185" t="s">
         <v>27</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C185" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>272</v>
+      </c>
+      <c r="O185">
+        <v>6.25</v>
+      </c>
+      <c r="P185" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>37</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>272</v>
+      </c>
+      <c r="O186">
+        <v>6.37</v>
+      </c>
+      <c r="P186" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>286</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>198</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" t="s">
+        <v>99</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>272</v>
+      </c>
+      <c r="O187">
+        <v>14.34</v>
+      </c>
+      <c r="P187" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>198</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" t="s">
+        <v>274</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>272</v>
+      </c>
+      <c r="O188">
+        <v>15.41</v>
+      </c>
+      <c r="P188" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>287</v>
+      </c>
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>67</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1800</v>
+      </c>
+      <c r="G189" t="s">
+        <v>279</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>3</v>
+      </c>
+      <c r="L189" t="s">
+        <v>272</v>
+      </c>
+      <c r="N189" t="s">
+        <v>58</v>
+      </c>
+      <c r="O189">
+        <v>7.59</v>
+      </c>
+      <c r="P189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" t="s">
+        <v>60</v>
+      </c>
+      <c r="D190" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190">
+        <v>1600</v>
+      </c>
+      <c r="G190" t="s">
+        <v>21</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="L190" t="s">
+        <v>272</v>
+      </c>
+      <c r="O190">
+        <v>9.57</v>
+      </c>
+      <c r="P190" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>289</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" t="s">
+        <v>86</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>450</v>
+      </c>
+      <c r="F191">
+        <v>600</v>
+      </c>
+      <c r="G191" t="s">
+        <v>219</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="L191" t="s">
+        <v>272</v>
+      </c>
+      <c r="N191" t="s">
+        <v>281</v>
+      </c>
+      <c r="O191">
+        <v>15.48</v>
+      </c>
+      <c r="P191" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>288</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192">
+        <v>1600</v>
+      </c>
+      <c r="G192" t="s">
+        <v>99</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="L192" t="s">
+        <v>272</v>
+      </c>
+      <c r="P192" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" t="s">
+        <v>198</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" t="s">
+        <v>279</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>272</v>
+      </c>
+      <c r="P193" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>500</v>
+      </c>
+      <c r="G194" t="s">
+        <v>279</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="L194" t="s">
+        <v>272</v>
+      </c>
+      <c r="P194" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>293</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" t="s">
+        <v>148</v>
+      </c>
+      <c r="E195">
+        <v>3000</v>
+      </c>
+      <c r="F195">
+        <v>2000</v>
+      </c>
+      <c r="G195" t="s">
+        <v>219</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>9</v>
+      </c>
+      <c r="L195" t="s">
+        <v>272</v>
+      </c>
+      <c r="P195" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>301</v>
+      </c>
+      <c r="B196" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" t="s">
+        <v>219</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
+        <v>272</v>
+      </c>
+      <c r="P196" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>278</v>
+      </c>
+      <c r="B197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>200</v>
+      </c>
+      <c r="F197">
+        <v>400</v>
+      </c>
+      <c r="G197" t="s">
+        <v>99</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="L197" t="s">
+        <v>272</v>
+      </c>
+      <c r="N197" t="s">
+        <v>58</v>
+      </c>
+      <c r="P197" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>294</v>
+      </c>
+      <c r="B198" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" t="s">
+        <v>99</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="L198" t="s">
+        <v>272</v>
+      </c>
+      <c r="P198" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>301</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="G199" t="s">
+        <v>99</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
+        <v>272</v>
+      </c>
+      <c r="P199" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>302</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200">
+        <v>1800</v>
+      </c>
+      <c r="G200" t="s">
+        <v>21</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="L200" t="s">
+        <v>272</v>
+      </c>
+      <c r="P200" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" t="s">
+        <v>83</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>1100</v>
+      </c>
+      <c r="F201">
+        <v>200</v>
+      </c>
+      <c r="G201" t="s">
+        <v>21</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="L201" t="s">
+        <v>272</v>
+      </c>
+      <c r="P201" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>300</v>
+      </c>
+      <c r="B202" t="s">
+        <v>75</v>
+      </c>
+      <c r="C202" t="s">
+        <v>49</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+      <c r="F202">
+        <v>500</v>
+      </c>
+      <c r="G202" t="s">
+        <v>21</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="L202" t="s">
+        <v>272</v>
+      </c>
+      <c r="P202" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>303</v>
+      </c>
+      <c r="B203" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" t="s">
+        <v>198</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" t="s">
+        <v>21</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
+        <v>272</v>
+      </c>
+      <c r="P203" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>304</v>
+      </c>
+      <c r="B204" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>1400</v>
+      </c>
+      <c r="F204">
+        <v>1200</v>
+      </c>
+      <c r="G204" t="s">
+        <v>37</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>4</v>
+      </c>
+      <c r="L204" t="s">
+        <v>272</v>
+      </c>
+      <c r="P204" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>305</v>
+      </c>
+      <c r="B205" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" t="s">
+        <v>96</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>800</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>272</v>
+      </c>
+      <c r="P205" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>302</v>
+      </c>
+      <c r="B206" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206">
+        <v>1800</v>
+      </c>
+      <c r="G206" t="s">
+        <v>37</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="L206" t="s">
+        <v>272</v>
+      </c>
+      <c r="P206" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>306</v>
+      </c>
+      <c r="B207" t="s">
+        <v>39</v>
+      </c>
+      <c r="C207" t="s">
+        <v>79</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>2400</v>
+      </c>
+      <c r="F207">
+        <v>2200</v>
+      </c>
+      <c r="G207" t="s">
+        <v>37</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>7</v>
+      </c>
+      <c r="L207" t="s">
+        <v>272</v>
+      </c>
+      <c r="P207" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>307</v>
+      </c>
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>272</v>
+      </c>
+      <c r="P208" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>295</v>
+      </c>
+      <c r="B209" t="s">
+        <v>39</v>
+      </c>
+      <c r="C209" t="s">
+        <v>79</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>2700</v>
+      </c>
+      <c r="F209">
+        <v>1700</v>
+      </c>
+      <c r="G209" t="s">
+        <v>37</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>8</v>
+      </c>
+      <c r="L209" t="s">
+        <v>272</v>
+      </c>
+      <c r="P209" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>308</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" t="s">
+        <v>198</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s">
+        <v>37</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="L210" t="s">
+        <v>272</v>
+      </c>
+      <c r="P210" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>320</v>
+      </c>
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" t="s">
         <v>45</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>200</v>
+      </c>
+      <c r="F211">
+        <v>400</v>
+      </c>
+      <c r="G211" t="s">
+        <v>37</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="L211" t="s">
+        <v>272</v>
+      </c>
+      <c r="P211" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>303</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>198</v>
+      </c>
+      <c r="D212" t="s">
         <v>28</v>
       </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="L164" t="s">
-        <v>257</v>
-      </c>
-      <c r="O164">
-        <v>7.02</v>
-      </c>
-      <c r="P164" t="s">
+      <c r="G212" t="s">
+        <v>37</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>272</v>
+      </c>
+      <c r="P212" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>309</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" t="s">
+        <v>205</v>
+      </c>
+      <c r="D213" t="s">
+        <v>43</v>
+      </c>
+      <c r="G213" t="s">
+        <v>37</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>272</v>
+      </c>
+      <c r="P213" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>310</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
+        <v>52</v>
+      </c>
+      <c r="D214" t="s">
+        <v>148</v>
+      </c>
+      <c r="E214">
+        <v>1000</v>
+      </c>
+      <c r="F214">
+        <v>1800</v>
+      </c>
+      <c r="G214" t="s">
+        <v>37</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>8</v>
+      </c>
+      <c r="L214" t="s">
+        <v>272</v>
+      </c>
+      <c r="P214" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>311</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>226</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="G215" t="s">
+        <v>37</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="L215" t="s">
+        <v>272</v>
+      </c>
+      <c r="P215" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>312</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>198</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" t="s">
+        <v>37</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
+        <v>272</v>
+      </c>
+      <c r="P216" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>313</v>
+      </c>
+      <c r="B217" t="s">
+        <v>57</v>
+      </c>
+      <c r="C217" t="s">
+        <v>92</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217">
+        <v>3000</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>37</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>8</v>
+      </c>
+      <c r="L217" t="s">
+        <v>272</v>
+      </c>
+      <c r="M217" t="s">
+        <v>314</v>
+      </c>
+      <c r="P217" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>315</v>
+      </c>
+      <c r="B218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218">
+        <v>4000</v>
+      </c>
+      <c r="F218">
+        <v>4000</v>
+      </c>
+      <c r="G218" t="s">
+        <v>37</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>11</v>
+      </c>
+      <c r="L218" t="s">
+        <v>272</v>
+      </c>
+      <c r="P218" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>316</v>
+      </c>
+      <c r="B219" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" t="s">
+        <v>43</v>
+      </c>
+      <c r="G219" t="s">
+        <v>37</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="L219" t="s">
+        <v>272</v>
+      </c>
+      <c r="P219" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>317</v>
+      </c>
+      <c r="B220" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220" t="s">
+        <v>200</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>37</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="L220" t="s">
+        <v>272</v>
+      </c>
+      <c r="P220" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>318</v>
+      </c>
+      <c r="B221" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221">
+        <v>3000</v>
+      </c>
+      <c r="F221">
+        <v>3000</v>
+      </c>
+      <c r="G221" t="s">
+        <v>37</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>10</v>
+      </c>
+      <c r="L221" t="s">
+        <v>272</v>
+      </c>
+      <c r="P221" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>319</v>
+      </c>
+      <c r="B222" t="s">
+        <v>75</v>
+      </c>
+      <c r="C222" t="s">
+        <v>96</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222">
+        <v>1800</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>37</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>4</v>
+      </c>
+      <c r="L222" t="s">
+        <v>272</v>
+      </c>
+      <c r="P222" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>286</v>
+      </c>
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" t="s">
+        <v>198</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>37</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="L223" t="s">
+        <v>272</v>
+      </c>
+      <c r="P223" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q137" xr:uid="{E6641C1E-ED49-4BC2-BF5D-8E30204BFA34}">
-      <formula1>"DMG, Egyptian Gods, Blue, 4-pocket black"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6395,19 +8470,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
